--- a/docs/EstrategiaEntrenamiento.xlsx
+++ b/docs/EstrategiaEntrenamiento.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dacastro\Downloads\Onedrive\OneDrive - Nacion Servicios S.A\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MCD\_Labo3\code\labo3_empresa3\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53745B80-E85E-464E-8977-F3455AC64FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEB970D-70EF-418A-B237-C3DB609B6171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{85493C32-C117-4849-B6F2-A1657B042679}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{85493C32-C117-4849-B6F2-A1657B042679}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="16">
   <si>
     <t>Opción 1</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>HP Tuning</t>
+  </si>
+  <si>
+    <t>Final Train</t>
   </si>
 </sst>
 </file>
@@ -105,7 +108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,6 +157,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCC00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -173,6 +182,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -188,17 +198,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCCC00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -522,10 +536,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C3" s="3">
@@ -573,53 +587,53 @@
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="N5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="C6" s="5" t="s">
+      <c r="A6" s="7"/>
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
       <c r="P6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="1"/>
@@ -629,18 +643,18 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
       <c r="G9" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+      <c r="A10" s="7"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1"/>
@@ -651,18 +665,18 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
       <c r="H12" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
+      <c r="A13" s="7"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1"/>
@@ -674,18 +688,18 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
       <c r="I15" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+      <c r="A16" s="7"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="1"/>
@@ -698,68 +712,68 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
       <c r="J18" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
+      <c r="A19" s="7"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
+      <c r="A20" s="7"/>
       <c r="K20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
+      <c r="A21" s="7"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
+      <c r="C22" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
       <c r="N23" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
+      <c r="A24" s="7"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="C25" s="5" t="s">
+      <c r="A25" s="7"/>
+      <c r="C25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
       <c r="P25" s="4" t="s">
         <v>11</v>
       </c>
@@ -785,19 +799,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71106199-FD4E-42D2-9779-58DD7882E4F4}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C2" s="3">
@@ -844,127 +858,128 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="P5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
+      <c r="N8" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="N9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="P9" s="4" t="s">
+      <c r="A9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="C10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="P11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C11" s="12" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="G15" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7" t="s">
-        <v>6</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="H18" s="2" t="s">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="G18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7" t="s">
-        <v>7</v>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
@@ -972,22 +987,21 @@
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="I21" s="2" t="s">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="H21" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7" t="s">
-        <v>8</v>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
@@ -996,89 +1010,112 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="J24" s="2" t="s">
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="I24" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="K26" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="J27" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="K29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7" t="s">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="N29" s="2" t="s">
+      <c r="C31" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="N32" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="C31" s="5" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="C34" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="P31" s="4" t="s">
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="P34" s="4" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C28:L28"/>
-    <mergeCell ref="C31:N31"/>
-    <mergeCell ref="A14:A31"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="C14:N14"/>
+    <mergeCell ref="C31:L31"/>
+    <mergeCell ref="C34:N34"/>
+    <mergeCell ref="A17:A34"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="C11:N11"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B31:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/EstrategiaEntrenamiento.xlsx
+++ b/docs/EstrategiaEntrenamiento.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MCD\_Labo3\code\labo3_empresa3\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEB970D-70EF-418A-B237-C3DB609B6171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B93911F-506C-445E-9C06-908F293F0041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{85493C32-C117-4849-B6F2-A1657B042679}"/>
+    <workbookView minimized="1" xWindow="26715" yWindow="2535" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{85493C32-C117-4849-B6F2-A1657B042679}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="17">
   <si>
     <t>Opción 1</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Final Train</t>
+  </si>
+  <si>
+    <t>Opción 3</t>
   </si>
 </sst>
 </file>
@@ -183,6 +186,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -201,7 +205,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,10 +539,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C3" s="3">
@@ -587,53 +590,53 @@
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="N5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="C6" s="6" t="s">
+      <c r="A6" s="8"/>
+      <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
       <c r="P6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="1"/>
@@ -643,18 +646,18 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
       <c r="G9" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="8"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1"/>
@@ -665,18 +668,18 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
       <c r="H12" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="A13" s="8"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1"/>
@@ -688,18 +691,18 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
       <c r="I15" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+      <c r="A16" s="8"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="1"/>
@@ -712,68 +715,68 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
       <c r="J18" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+      <c r="A19" s="8"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
+      <c r="A20" s="8"/>
       <c r="K20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
+      <c r="A21" s="8"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
+      <c r="C22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
       <c r="N23" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
+      <c r="A24" s="8"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="C25" s="6" t="s">
+      <c r="A25" s="8"/>
+      <c r="C25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
       <c r="P25" s="4" t="s">
         <v>11</v>
       </c>
@@ -802,23 +805,23 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C2" s="3">
-        <v>201801</v>
-      </c>
-      <c r="D2" s="3">
-        <v>201802</v>
+        <v>201701</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E2" s="3">
         <v>201803</v>
@@ -858,7 +861,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -877,16 +880,16 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="P5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -903,61 +906,61 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="N8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="C10" s="12" t="s">
+      <c r="A10" s="8"/>
+      <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+      <c r="A11" s="8"/>
       <c r="P11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="8"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="1"/>
@@ -967,18 +970,18 @@
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
       <c r="G18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+      <c r="A19" s="8"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="1"/>
@@ -989,18 +992,18 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
       <c r="H21" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
+      <c r="A22" s="8"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8" t="s">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="1"/>
@@ -1012,18 +1015,18 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
       <c r="I24" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
+      <c r="A25" s="8"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8" t="s">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="1"/>
@@ -1036,79 +1039,74 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
       <c r="J27" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
+      <c r="A28" s="8"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
+      <c r="A29" s="8"/>
       <c r="K29" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
+      <c r="A30" s="8"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8" t="s">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
+      <c r="C31" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
       <c r="N32" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
+      <c r="A33" s="8"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="C34" s="6" t="s">
+      <c r="A34" s="8"/>
+      <c r="C34" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
       <c r="P34" s="4" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="C14:N14"/>
-    <mergeCell ref="C31:L31"/>
     <mergeCell ref="C34:N34"/>
     <mergeCell ref="A17:A34"/>
     <mergeCell ref="B17:B18"/>
@@ -1116,6 +1114,11 @@
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="C14:N14"/>
+    <mergeCell ref="C31:L31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
